--- a/collections/Collections.xlsx
+++ b/collections/Collections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilguy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilguy\Documents\GitHub\Data-Science-Luminar\collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E835498-9852-4427-8652-B7DDD635BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077EF1A-0167-4313-9D57-7D558E0A599A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3BD8F-0339-441B-B140-B896BB8B26A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>COLLECTION</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>SET</t>
+  </si>
+  <si>
+    <t>Mutable</t>
   </si>
 </sst>
 </file>
@@ -152,15 +155,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,185 +501,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256CDE6D-7AB7-4B5B-B722-CEAF5AA85CD8}">
-  <dimension ref="F7:J24"/>
+  <dimension ref="F7:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="4" t="s">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2" t="s">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
+    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
     <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/collections/Collections.xlsx
+++ b/collections/Collections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilguy\Documents\GitHub\Data-Science-Luminar\collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077EF1A-0167-4313-9D57-7D558E0A599A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E826B-C4E9-4F79-84F5-ACA8CDB03A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE3BD8F-0339-441B-B140-B896BB8B26A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>COLLECTION</t>
   </si>
@@ -96,13 +96,64 @@
   </si>
   <si>
     <t>Mutable</t>
+  </si>
+  <si>
+    <t>TUPLE</t>
+  </si>
+  <si>
+    <t>items = ()</t>
+  </si>
+  <si>
+    <t>tuple()</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <t>index()</t>
+  </si>
+  <si>
+    <t>set = {'a',1 }</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>add()</t>
+  </si>
+  <si>
+    <t>difference()</t>
+  </si>
+  <si>
+    <t>update()</t>
+  </si>
+  <si>
+    <t>intersection()</t>
+  </si>
+  <si>
+    <t>items = {}</t>
+  </si>
+  <si>
+    <t>keys()</t>
+  </si>
+  <si>
+    <t>values()</t>
+  </si>
+  <si>
+    <t>popitem()</t>
+  </si>
+  <si>
+    <t>no (no index)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +176,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +194,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -148,11 +211,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,11 +227,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -501,207 +575,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256CDE6D-7AB7-4B5B-B722-CEAF5AA85CD8}">
-  <dimension ref="F7:K24"/>
+  <dimension ref="C2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="3" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1" t="s">
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="H9:H12"/>
+  <mergeCells count="18">
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
